--- a/DDTuneTrack/bin/Debug/DDRentalTunes2015.xlsx
+++ b/DDTuneTrack/bin/Debug/DDRentalTunes2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>Tune Type</t>
   </si>
@@ -33,40 +33,79 @@
     <t>Staff</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Accident Calibration</t>
   </si>
   <si>
     <t>DM</t>
   </si>
   <si>
+    <t>Regular Tune Test</t>
+  </si>
+  <si>
     <t>Wax Only</t>
   </si>
   <si>
     <t>RG</t>
   </si>
   <si>
-    <t>457r578</t>
+    <t>Midnight Test 3</t>
+  </si>
+  <si>
+    <t>Will it do the thing?</t>
+  </si>
+  <si>
+    <t>after thing</t>
+  </si>
+  <si>
+    <t>TB</t>
   </si>
   <si>
     <t>Performance Tune</t>
   </si>
   <si>
-    <t>boken</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>toe strap, 326</t>
-  </si>
-  <si>
-    <t>toe strap</t>
-  </si>
-  <si>
-    <t>Top sheet epoxy</t>
-  </si>
-  <si>
-    <t>so broked</t>
+    <t>New the thing</t>
+  </si>
+  <si>
+    <t>not blank</t>
+  </si>
+  <si>
+    <t>after blank</t>
+  </si>
+  <si>
+    <t>45678ikjhewsdfg</t>
+  </si>
+  <si>
+    <t>Not a blank note</t>
+  </si>
+  <si>
+    <t>blank note</t>
+  </si>
+  <si>
+    <t>not a blank note 1</t>
+  </si>
+  <si>
+    <t>Not a blank note 2</t>
+  </si>
+  <si>
+    <t>not blank 1</t>
+  </si>
+  <si>
+    <t>blank 1</t>
+  </si>
+  <si>
+    <t>not blank 2</t>
+  </si>
+  <si>
+    <t>Not blank 1</t>
+  </si>
+  <si>
+    <t>Blank 1</t>
+  </si>
+  <si>
+    <t>Not blank 2</t>
   </si>
 </sst>
 </file>
@@ -415,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,230 +484,567 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>23536</v>
+        <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>42166</v>
+        <v>42288</v>
       </c>
       <c r="D2" s="2">
-        <v>42166</v>
+        <v>42288</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34678</v>
+        <v>12345</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>42166</v>
-      </c>
-      <c r="D3" s="2">
-        <v>42166</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>12345</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="2">
-        <v>42166</v>
+        <v>42288</v>
       </c>
       <c r="D4" s="2">
-        <v>42166</v>
+        <v>42288</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>457679</v>
+        <v>12345</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>42166</v>
+        <v>42288</v>
       </c>
       <c r="D5" s="2">
-        <v>42166</v>
+        <v>42288</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>34567</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>80</v>
+        <v>2345678</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
-        <v>42166</v>
-      </c>
-      <c r="D6" s="2">
-        <v>42166</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12355</v>
+        <v>2345678</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="D7" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>234</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12345</v>
+        <v>876543</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="D8" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>132556</v>
+        <v>1234567</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="D9" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>5678</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>124</v>
+        <v>12345678</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="D10" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1345</v>
+        <v>1234567</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="D11" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>134</v>
+        <v>87654</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="D12" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>245</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2345</v>
+        <v>765325</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="D13" s="2">
-        <v>42258</v>
+        <v>42288</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>87654</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>876545678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>678987654</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>567898765</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D16" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D17" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>565432345</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>34567876</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1234567</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D20" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>76543</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D21" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D22" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D23" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D24" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D25" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D26" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D27" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D28" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D29" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D30" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DDTuneTrack/bin/Debug/DDRentalTunes2015.xlsx
+++ b/DDTuneTrack/bin/Debug/DDRentalTunes2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="43">
   <si>
     <t>Tune Type</t>
   </si>
@@ -36,13 +36,115 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>1234567-</t>
+  </si>
+  <si>
+    <t>Performance Tune</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">space at end </t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Wax Only</t>
+  </si>
+  <si>
+    <t>q4353455</t>
+  </si>
+  <si>
+    <t>4teyry</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
     <t>Accident Calibration</t>
   </si>
   <si>
-    <t>RG</t>
-  </si>
-  <si>
-    <t>Performance Tune</t>
+    <t>2q3564w7 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3b6546b45  </t>
+  </si>
+  <si>
+    <t>y45 5 t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5e5y4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54  5t </t>
+  </si>
+  <si>
+    <t>2355665654-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcd def </t>
+  </si>
+  <si>
+    <t>34646734w5</t>
+  </si>
+  <si>
+    <t>5334t3w</t>
+  </si>
+  <si>
+    <t>34543w534w5</t>
+  </si>
+  <si>
+    <t>3w453w45345345</t>
+  </si>
+  <si>
+    <t>7467585gf87tgbo909p</t>
+  </si>
+  <si>
+    <t>llkkh</t>
+  </si>
+  <si>
+    <t>976irf</t>
+  </si>
+  <si>
+    <t>iyguf</t>
+  </si>
+  <si>
+    <t>767oyhukbki</t>
+  </si>
+  <si>
+    <t>Tune 1</t>
+  </si>
+  <si>
+    <t>Comment 1</t>
+  </si>
+  <si>
+    <t>Tune 2</t>
+  </si>
+  <si>
+    <t>Tune 3</t>
+  </si>
+  <si>
+    <t>Comment 2</t>
+  </si>
+  <si>
+    <t>Tune 4</t>
+  </si>
+  <si>
+    <t>Tune 5</t>
+  </si>
+  <si>
+    <t>Tune 6</t>
+  </si>
+  <si>
+    <t>Tune 7</t>
+  </si>
+  <si>
+    <t>Comment 3</t>
+  </si>
+  <si>
+    <t>3e356345345</t>
   </si>
 </sst>
 </file>
@@ -86,10 +188,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F35"/>
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,11 +529,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>76543</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>42319</v>
@@ -439,153 +542,1819 @@
         <v>42319</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>23456789</v>
+        <v>234567</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>42015</v>
+        <v>42319</v>
       </c>
       <c r="D3" s="2">
         <v>42319</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4">
+        <v>3647</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D4" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5">
+        <v>4354345</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>345435</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6">
+        <v>1234115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>3245546</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7">
+        <v>634575678</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D7" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>4646</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8">
+        <v>123456</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10">
+        <v>1234234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>1234234</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11">
+        <v>4124366</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D11" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12">
+        <v>2346437</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>475468</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13">
+        <v>124235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>13525</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14">
+        <v>1235346</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15">
+        <v>54645567</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>457578689</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A16">
+        <v>768679</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D16" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>6989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>123421546</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D17" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>545567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5456467</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>456768</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>675673557</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D20" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>34645747</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D21" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>474747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2355656</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D22" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>5346456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12425</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D23" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>123525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1235126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D24" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>1251236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D25" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D26" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D27" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D28" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>5343463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>435435345</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D29" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>5345345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>534534534</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D30" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35345353</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D31" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D32" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D33" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D34" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3453454</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D35" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>345345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1251646</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D36" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>31451435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3453246</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D37" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2363246</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D38" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>3246236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4325345</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D39" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35245345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D40" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>23556</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D41" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>346346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>43757</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D42" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>547567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>75756</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D43" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D44" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>986756</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D45" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D46" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D47" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4564666</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D48" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>456345346</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D49" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>56563</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D50" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>3635636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>534564545</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D51" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>6456546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3464356456</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D52" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>346356</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D53" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>345645656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5345645645</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D54" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4656757</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D55" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>346436456</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D56" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3456456</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D57" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57">
+        <v>45645646</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D58" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D59" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D60" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D61" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D62" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D63" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D64" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D65" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D66" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D67" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D68" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D69" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>4345345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D70" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D71" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D72" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D73" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D74" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D75" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D76" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D77" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D78" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D79" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D80" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D81" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D82" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D83" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D84" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D85" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D86" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D87" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D88" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D89" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1345</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D90" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>124235</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D91" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2346</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D92" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3245</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D93" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D94" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D95" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D96" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D97" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D98" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="2">
+        <v>42319</v>
+      </c>
+      <c r="D99" s="2">
+        <v>42319</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DDTuneTrack/bin/Debug/DDRentalTunes2015.xlsx
+++ b/DDTuneTrack/bin/Debug/DDRentalTunes2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
   <si>
     <t>Tune Type</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Not blank 2</t>
+  </si>
+  <si>
+    <t>4567890-</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F3"/>
@@ -1045,6 +1048,103 @@
       </c>
       <c r="F30" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9876543</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D31" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>7654326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7654</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42288</v>
+      </c>
+      <c r="D32" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>456789</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2">
+        <v>42045</v>
+      </c>
+      <c r="D33" s="2">
+        <v>42288</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>9876543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4567890</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2">
+        <v>42015</v>
+      </c>
+      <c r="D34" s="2">
+        <v>42015</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>98765</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>42401</v>
+      </c>
+      <c r="D35" s="2">
+        <v>42401</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>567890</v>
       </c>
     </row>
   </sheetData>
